--- a/record-Tracy.xlsx
+++ b/record-Tracy.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -560,27 +560,27 @@
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
           <t>2024-07-28</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>2024-07-27</t>
         </is>
       </c>
     </row>
@@ -597,17 +597,17 @@
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -624,17 +624,17 @@
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -655,17 +655,17 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>2024-07-24</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -745,17 +745,17 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -775,17 +775,17 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -838,17 +838,17 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>2024-07-26</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -869,12 +869,12 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
@@ -904,12 +904,12 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
@@ -989,12 +989,12 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1097,12 +1097,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1185,9 +1185,21 @@
 committed，committing，commits</t>
         </is>
       </c>
-      <c r="C22" s="3" t="n"/>
-      <c r="D22" s="3" t="n"/>
-      <c r="E22" s="3" t="n"/>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
@@ -1200,9 +1212,21 @@
           <t>n. 委员会; 全体委员</t>
         </is>
       </c>
-      <c r="C23" s="3" t="n"/>
-      <c r="D23" s="3" t="n"/>
-      <c r="E23" s="3" t="n"/>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
@@ -1215,9 +1239,21 @@
           <t>n. 自我; 自尊; 自负</t>
         </is>
       </c>
-      <c r="C24" s="3" t="n"/>
-      <c r="D24" s="3" t="n"/>
-      <c r="E24" s="3" t="n"/>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="A25" s="5" t="inlineStr">
@@ -1233,9 +1269,21 @@
 tremendously</t>
         </is>
       </c>
-      <c r="C25" s="3" t="n"/>
-      <c r="D25" s="3" t="n"/>
-      <c r="E25" s="3" t="n"/>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="A26" s="5" t="inlineStr">
@@ -1262,9 +1310,21 @@
 buffed，buffing，buffs</t>
         </is>
       </c>
-      <c r="C26" s="3" t="n"/>
-      <c r="D26" s="3" t="n"/>
-      <c r="E26" s="3" t="n"/>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="A27" s="5" t="inlineStr">
@@ -1281,9 +1341,21 @@
 featured, featuring, features</t>
         </is>
       </c>
-      <c r="C27" s="3" t="n"/>
-      <c r="D27" s="3" t="n"/>
-      <c r="E27" s="3" t="n"/>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="A28" s="5" t="inlineStr">
@@ -1300,9 +1372,21 @@
 Mole莫尔式管道测弯仪</t>
         </is>
       </c>
-      <c r="C28" s="3" t="n"/>
-      <c r="D28" s="3" t="n"/>
-      <c r="E28" s="3" t="n"/>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="14.25" customHeight="1">
       <c r="A29" s="5" t="inlineStr">
@@ -1315,9 +1399,21 @@
           <t>接受判决</t>
         </is>
       </c>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" s="5" t="inlineStr">
@@ -1330,9 +1426,21 @@
           <t>出现了</t>
         </is>
       </c>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" s="5" t="inlineStr">
@@ -1345,9 +1453,21 @@
           <t>vt. 朝上翻,来到,卷起,找到,出现,发生</t>
         </is>
       </c>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" s="5" t="inlineStr">
